--- a/data/Operational.xlsx
+++ b/data/Operational.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2b7bd6fc4e1fffb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2b7bd6fc4e1fffb/Projetos/Master-Theses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE46C68-6868-4C31-A5C8-F9BB5BE63EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{6AE46C68-6868-4C31-A5C8-F9BB5BE63EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF9682E-C59F-4A88-B35E-0E2D4C2A90BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{757E2746-0F13-450A-9B4B-0FB8556B68CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$78</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1292,11 +1295,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EB0CF2-C5D8-49D0-97C4-A133D97CA48A}">
   <dimension ref="A1:AH78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="118.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="108.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="185.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="131.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="126.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="104.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="117" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="85.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="156.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="107.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="100.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -8841,6 +8879,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH78" xr:uid="{E8EB0CF2-C5D8-49D0-97C4-A133D97CA48A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>